--- a/data/ramp/Tier2.xlsx
+++ b/data/ramp/Tier2.xlsx
@@ -717,10 +717,10 @@
         <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J2" t="n">
         <v>10</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="AT2" t="n">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="AU2" t="n">
-        <v>1140</v>
+        <v>1080</v>
       </c>
       <c r="AV2" t="n">
         <v>1380</v>
@@ -995,13 +995,13 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="AT3" t="n">
         <v>540</v>
       </c>
       <c r="AU3" t="n">
-        <v>1140</v>
+        <v>1020</v>
       </c>
       <c r="AV3" t="n">
         <v>1380</v>
@@ -1167,7 +1167,7 @@
         <v>1140</v>
       </c>
       <c r="AV4" t="n">
-        <v>1380</v>
+        <v>1440</v>
       </c>
       <c r="AW4" t="n">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>35</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>180</v>
@@ -1321,16 +1321,16 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="AT5" t="n">
-        <v>600</v>
+        <v>1440</v>
       </c>
       <c r="AU5" t="n">
-        <v>1080</v>
+        <v>0</v>
       </c>
       <c r="AV5" t="n">
-        <v>1320</v>
+        <v>0</v>
       </c>
       <c r="AW5" t="n">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>30</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>90</v>
@@ -1490,16 +1490,16 @@
         <v>540</v>
       </c>
       <c r="AU6" t="n">
-        <v>1080</v>
+        <v>720</v>
       </c>
       <c r="AV6" t="n">
         <v>1380</v>
       </c>
       <c r="AW6" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
       <c r="AY6" t="n">
         <v>0.35</v>
